--- a/Code/Results/Cases/Case_0_95/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_95/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2600652451322958</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.596429258211629</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04461083883601269</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>48.49846382549754</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.003588110144496432</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.405978312332451</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02044049295395922</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.2632971598167799</v>
+      </c>
+      <c r="D3">
+        <v>1.57208122231151</v>
+      </c>
+      <c r="E3">
+        <v>0.04487315879374876</v>
+      </c>
+      <c r="F3">
+        <v>48.42316842204508</v>
+      </c>
+      <c r="G3">
+        <v>0.003632565078273636</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.41260837076598</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.01853400970181696</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.2654372648393064</v>
+      </c>
+      <c r="D4">
+        <v>1.55895928359638</v>
+      </c>
+      <c r="E4">
+        <v>0.04504287516405237</v>
+      </c>
+      <c r="F4">
+        <v>48.42257705315058</v>
+      </c>
+      <c r="G4">
+        <v>0.003660933059057475</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.417845522064312</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.01737145917381611</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2663484598980332</v>
+      </c>
+      <c r="D5">
+        <v>1.554054194742093</v>
+      </c>
+      <c r="E5">
+        <v>0.04511422667230525</v>
+      </c>
+      <c r="F5">
+        <v>48.43352361112602</v>
+      </c>
+      <c r="G5">
+        <v>0.003672768282422262</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.420267790365003</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.01689916905429101</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.2665021220829402</v>
+      </c>
+      <c r="D6">
+        <v>1.55326593035926</v>
+      </c>
+      <c r="E6">
+        <v>0.04512620729099126</v>
+      </c>
+      <c r="F6">
+        <v>48.43600892302982</v>
+      </c>
+      <c r="G6">
+        <v>0.003674750275178904</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.42068726188306</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.01682081798287172</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.2654493953586368</v>
+      </c>
+      <c r="D7">
+        <v>1.558891363505211</v>
+      </c>
+      <c r="E7">
+        <v>0.04504382854504563</v>
+      </c>
+      <c r="F7">
+        <v>48.42267975089243</v>
+      </c>
+      <c r="G7">
+        <v>0.003661091552868645</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.417877029723343</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.01736508451491048</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.2611472507798069</v>
+      </c>
+      <c r="D8">
+        <v>1.58764380000963</v>
+      </c>
+      <c r="E8">
+        <v>0.04469950069993356</v>
+      </c>
+      <c r="F8">
+        <v>48.46284847761422</v>
+      </c>
+      <c r="G8">
+        <v>0.003603218935761099</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.408019050438099</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.01978111859136789</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.2539498419114778</v>
+      </c>
+      <c r="D9">
+        <v>1.65938824226771</v>
+      </c>
+      <c r="E9">
+        <v>0.04409219150424804</v>
+      </c>
+      <c r="F9">
+        <v>48.91803242882213</v>
+      </c>
+      <c r="G9">
+        <v>0.003497981520995593</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.398198355534305</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.02461028276424315</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.2494236656906281</v>
+      </c>
+      <c r="D10">
+        <v>1.722777582109984</v>
+      </c>
+      <c r="E10">
+        <v>0.04368635090588313</v>
+      </c>
+      <c r="F10">
+        <v>49.50387051196219</v>
+      </c>
+      <c r="G10">
+        <v>0.003425304560492393</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.397177726304335</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.02825592367435092</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.2475318317965787</v>
+      </c>
+      <c r="D11">
+        <v>1.754262201408721</v>
+      </c>
+      <c r="E11">
+        <v>0.04351024065840825</v>
+      </c>
+      <c r="F11">
+        <v>49.8304806163377</v>
+      </c>
+      <c r="G11">
+        <v>0.003393155201359212</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.39815860747197</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.02994603678786234</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.2468396708671889</v>
+      </c>
+      <c r="D12">
+        <v>1.766596122502506</v>
+      </c>
+      <c r="E12">
+        <v>0.04344475472863518</v>
+      </c>
+      <c r="F12">
+        <v>49.9633189532276</v>
+      </c>
+      <c r="G12">
+        <v>0.003381103601355856</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.398747287527669</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.03059156162482424</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.2469876586954172</v>
+      </c>
+      <c r="D13">
+        <v>1.763920974201369</v>
+      </c>
+      <c r="E13">
+        <v>0.04345880512037681</v>
+      </c>
+      <c r="F13">
+        <v>49.93429372922617</v>
+      </c>
+      <c r="G13">
+        <v>0.003383693816780951</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.398610681349936</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.03045227465493383</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.2474744003210816</v>
+      </c>
+      <c r="D14">
+        <v>1.755268489259095</v>
+      </c>
+      <c r="E14">
+        <v>0.04350482909852005</v>
+      </c>
+      <c r="F14">
+        <v>49.84122261446487</v>
+      </c>
+      <c r="G14">
+        <v>0.00339216130245545</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.398202626904634</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.02999902811696842</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.2477757062878112</v>
+      </c>
+      <c r="D15">
+        <v>1.75002312812461</v>
+      </c>
+      <c r="E15">
+        <v>0.04353317618084152</v>
+      </c>
+      <c r="F15">
+        <v>49.78542276348935</v>
+      </c>
+      <c r="G15">
+        <v>0.003397363591723885</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.397981270877892</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.02972214996901101</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.2495506812777961</v>
+      </c>
+      <c r="D16">
+        <v>1.720775819110145</v>
+      </c>
+      <c r="E16">
+        <v>0.04369802963110825</v>
+      </c>
+      <c r="F16">
+        <v>49.48377805654832</v>
+      </c>
+      <c r="G16">
+        <v>0.003427423239073413</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.397143486282232</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.02814618824110227</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.2506825137311637</v>
+      </c>
+      <c r="D17">
+        <v>1.703532607285695</v>
+      </c>
+      <c r="E17">
+        <v>0.04380132707865414</v>
+      </c>
+      <c r="F17">
+        <v>49.31447322987435</v>
+      </c>
+      <c r="G17">
+        <v>0.003446091611250788</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.397006061706463</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.02718815554492693</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.2513492326689146</v>
+      </c>
+      <c r="D18">
+        <v>1.693862047403968</v>
+      </c>
+      <c r="E18">
+        <v>0.04386154320329982</v>
+      </c>
+      <c r="F18">
+        <v>49.22271744449256</v>
+      </c>
+      <c r="G18">
+        <v>0.003456915534318897</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.397062422171388</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.02664004067950287</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.2515776663836959</v>
+      </c>
+      <c r="D19">
+        <v>1.69062935412768</v>
+      </c>
+      <c r="E19">
+        <v>0.0438820697205955</v>
+      </c>
+      <c r="F19">
+        <v>49.19260162948387</v>
+      </c>
+      <c r="G19">
+        <v>0.003460595406600367</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.397104489964278</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.02645493232769525</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.2505604000447477</v>
+      </c>
+      <c r="D20">
+        <v>1.705342373235567</v>
+      </c>
+      <c r="E20">
+        <v>0.04379024801122267</v>
+      </c>
+      <c r="F20">
+        <v>49.33191041680629</v>
+      </c>
+      <c r="G20">
+        <v>0.003444095451626919</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.397006612052451</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.02728983090073456</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.247330773008386</v>
+      </c>
+      <c r="D21">
+        <v>1.757798509441159</v>
+      </c>
+      <c r="E21">
+        <v>0.04349127825441368</v>
+      </c>
+      <c r="F21">
+        <v>49.86830692566787</v>
+      </c>
+      <c r="G21">
+        <v>0.003389670938246603</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.39831650610455</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.03013199978348524</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.2453614048646813</v>
+      </c>
+      <c r="D22">
+        <v>1.794496079791259</v>
+      </c>
+      <c r="E22">
+        <v>0.04330288700549634</v>
+      </c>
+      <c r="F22">
+        <v>50.27253471915287</v>
+      </c>
+      <c r="G22">
+        <v>0.003354811845024722</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.400444013093818</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.03202219031332731</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.2463994827555069</v>
+      </c>
+      <c r="D23">
+        <v>1.7746780050947</v>
+      </c>
+      <c r="E23">
+        <v>0.04340280126992901</v>
+      </c>
+      <c r="F23">
+        <v>50.05169559934438</v>
+      </c>
+      <c r="G23">
+        <v>0.003373354792224322</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.399188789274206</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.03101002745356141</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.2506155577774791</v>
+      </c>
+      <c r="D24">
+        <v>1.70452342407259</v>
+      </c>
+      <c r="E24">
+        <v>0.04379525427353226</v>
+      </c>
+      <c r="F24">
+        <v>49.32400972291759</v>
+      </c>
+      <c r="G24">
+        <v>0.003444997631264473</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.397005942300012</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.02724385522480333</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.2557636953710585</v>
+      </c>
+      <c r="D25">
+        <v>1.63820675405708</v>
+      </c>
+      <c r="E25">
+        <v>0.04424931974943735</v>
+      </c>
+      <c r="F25">
+        <v>48.75245833911436</v>
+      </c>
+      <c r="G25">
+        <v>0.003525606115594826</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.399798386688758</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.02328998065057419</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
